--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value547.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value547.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.73182588072188</v>
+        <v>1.577136993408203</v>
       </c>
       <c r="B1">
-        <v>0.8059454102809538</v>
+        <v>1.824631929397583</v>
       </c>
       <c r="C1">
-        <v>0.9580087535500061</v>
+        <v>1.892598152160645</v>
       </c>
       <c r="D1">
-        <v>1.674010445592201</v>
+        <v>2.329355716705322</v>
       </c>
       <c r="E1">
-        <v>3.710777209426237</v>
+        <v>3.412607669830322</v>
       </c>
     </row>
   </sheetData>
